--- a/setting.xlsx
+++ b/setting.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$64</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -651,17 +654,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90042D98-647F-4B79-B5E2-7BB90C9A5AFA}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="X63" sqref="X63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="91" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>